--- a/Result/VAR/Service/CHN.xlsx
+++ b/Result/VAR/Service/CHN.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,353 +460,363 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.5260682375492394</v>
+        <v>22.46851474797015</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B3" t="n">
-        <v>0.7299393916990411</v>
+        <v>23.34849440928966</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B4" t="n">
-        <v>1.716498614370188</v>
+        <v>23.81055562466604</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B5" t="n">
-        <v>1.497943042410231</v>
+        <v>24.84337344162781</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.330250458128884</v>
+        <v>27.09276523344505</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01992889612018445</v>
+        <v>30.42387063804104</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B8" t="n">
-        <v>0.363330726908849</v>
+        <v>30.97733424408571</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B9" t="n">
-        <v>0.7776462680627496</v>
+        <v>31.39937535811302</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.164318181755409</v>
+        <v>32.19059041818007</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B11" t="n">
-        <v>2.605421896832198</v>
+        <v>33.56311052626297</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.018494929300282</v>
+        <v>33.29520472703416</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.117078422719089</v>
+        <v>34.67706599069223</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B14" t="n">
-        <v>0.8864695746797011</v>
+        <v>35.54014274746507</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.5563780987033695</v>
+        <v>34.86098136441871</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B16" t="n">
-        <v>0.6270513656151451</v>
+        <v>35.1162105869378</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B17" t="n">
-        <v>1.51807274549202</v>
+        <v>34.96672565233457</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6022457499160083</v>
+        <v>35.47067191524393</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.5056326855674129</v>
+        <v>36.7105286365936</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.3197119890275175</v>
+        <v>38.17032523147132</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B21" t="n">
-        <v>0.2231640640554602</v>
+        <v>39.29715163470701</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.4106526959423391</v>
+        <v>40.27735997383937</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.244547014488937</v>
+        <v>41.12085486628393</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.6253474503405414</v>
+        <v>41.79039250995109</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9978617694222507</v>
+        <v>41.68602196835528</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B26" t="n">
-        <v>0.328130239745775</v>
+        <v>41.36819002951953</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5719071125112052</v>
+        <v>41.95588640891205</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.062708321177027</v>
+        <v>42.68086585876535</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B29" t="n">
-        <v>1.556772627166445</v>
+        <v>43.71531677979664</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.7765626863603</v>
+        <v>43.97639471623226</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B31" t="n">
-        <v>0.3457400909300503</v>
+        <v>44.07658620018655</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B32" t="n">
-        <v>1.054183839850026</v>
+        <v>43.83672058078202</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B33" t="n">
-        <v>0.2468474609614688</v>
+        <v>45.47205014049865</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.02655712111156561</v>
+        <v>46.92258918646102</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B35" t="n">
-        <v>1.110165661319037</v>
+        <v>48.6858898809519</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.9102588396664331</v>
+        <v>50.46695266940336</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B37" t="n">
+        <v>52.59734367582512</v>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -854,7 +864,7 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.1393645113570486</v>
+        <v>49.32905490444891</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -864,7 +874,7 @@
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.302418241610937</v>
+        <v>35.65399151601694</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -874,7 +884,7 @@
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.030657042384369</v>
+        <v>-4.557407928155335</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -884,7 +894,7 @@
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>-9.517099923223252</v>
+        <v>-113.933392477008</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -894,7 +904,7 @@
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>-26.82886992946709</v>
+        <v>-405.8736453170176</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -910,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -942,423 +952,413 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="B2" t="n">
-        <v>22.30837564817022</v>
+        <v>22.39727118482082</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B3" t="n">
-        <v>22.71406745641086</v>
+        <v>23.37063873846506</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="B4" t="n">
-        <v>22.59369102710226</v>
+        <v>23.95391470777806</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2032539894927</v>
+        <v>25.03882544703982</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="B6" t="n">
-        <v>25.52931556625333</v>
+        <v>27.21138146027503</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B7" t="n">
-        <v>29.35332018542419</v>
+        <v>30.3491206092547</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="B8" t="n">
-        <v>29.84707434646617</v>
+        <v>30.93927074559093</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="B9" t="n">
-        <v>30.36075740362833</v>
+        <v>31.38926876876191</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="B10" t="n">
-        <v>31.23777118769934</v>
+        <v>32.16460271319004</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="B11" t="n">
-        <v>32.8924312398331</v>
+        <v>33.44712608422894</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B12" t="n">
-        <v>32.38277311021145</v>
+        <v>33.24326997548207</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="B13" t="n">
-        <v>34.478536877422</v>
+        <v>34.5073761242959</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="B14" t="n">
-        <v>35.55580571533227</v>
+        <v>35.36631155174096</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="B15" t="n">
-        <v>34.51599613052345</v>
+        <v>34.89566780412389</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B16" t="n">
-        <v>34.36265612039433</v>
+        <v>35.1526513954723</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B17" t="n">
-        <v>33.65293801156184</v>
+        <v>35.04932270534905</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="B18" t="n">
-        <v>33.57027126834449</v>
+        <v>35.58545097780811</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="B19" t="n">
-        <v>35.00567727061917</v>
+        <v>36.69720534650173</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B20" t="n">
-        <v>37.04332902280985</v>
+        <v>38.04504181654253</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="B21" t="n">
-        <v>38.57534808943312</v>
+        <v>39.15811523831817</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B22" t="n">
-        <v>39.78765516702887</v>
+        <v>40.15506387977825</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B23" t="n">
-        <v>41.22312630868009</v>
+        <v>41.00775790188487</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B24" t="n">
-        <v>42.24794475438896</v>
+        <v>41.76132817779339</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B25" t="n">
-        <v>42.0282161856089</v>
+        <v>41.86336015031684</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B26" t="n">
-        <v>41.18314016648829</v>
+        <v>41.69781564042601</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B27" t="n">
-        <v>41.33592591678994</v>
+        <v>42.1797467789687</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B28" t="n">
-        <v>41.81684190683736</v>
+        <v>42.74719797823397</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B29" t="n">
-        <v>42.86966500939599</v>
+        <v>43.57215768122619</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B30" t="n">
-        <v>42.85977979077759</v>
+        <v>43.79980666805091</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B31" t="n">
-        <v>44.40666719932563</v>
+        <v>44.28402664963917</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B32" t="n">
-        <v>44.17699192151338</v>
+        <v>44.11420969486745</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B33" t="n">
-        <v>44.29305673463117</v>
+        <v>45.46164806268363</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B34" t="n">
-        <v>45.46330538759899</v>
+        <v>46.64096236423742</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B35" t="n">
-        <v>46.88040150152828</v>
+        <v>48.12840220237163</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B36" t="n">
-        <v>48.27094049434601</v>
+        <v>50.05394964943</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B37" t="n">
-        <v>50.77164514848277</v>
+        <v>52.66335510327869</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B38" t="n">
-        <v>52.3620909629531</v>
+        <v>53.15474797432245</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B39" t="n">
-        <v>52.68473653423992</v>
+        <v>53.68357589708526</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B40" t="n">
-        <v>53.26996792341521</v>
+        <v>54.40402564003569</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B41" t="n">
-        <v>54.26890426636677</v>
+        <v>54.07731666945551</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B42" t="n">
-        <v>54.45856070688963</v>
+        <v>53.43138774488179</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B43" t="n">
-        <v>53.30909789775842</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1406,7 +1406,7 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3022315537016255</v>
+        <v>52.22146493571091</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -1416,7 +1416,7 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.2802701184844499</v>
+        <v>50.49310370692035</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1426,7 +1426,7 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.3341482502901562</v>
+        <v>48.4377000458832</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1436,7 +1436,7 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.505898559543323</v>
+        <v>46.38145413436953</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1446,7 +1446,7 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.094169395067916</v>
+        <v>44.60852370192259</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
